--- a/biology/Botanique/Liste_de_plantes_industrielles/Liste_de_plantes_industrielles.xlsx
+++ b/biology/Botanique/Liste_de_plantes_industrielles/Liste_de_plantes_industrielles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -506,7 +518,9 @@
           <t>Plantes pour la production d'alcool</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Agave (tequila)
 Avoine (whisky)
@@ -553,6 +567,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -605,6 +623,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -630,7 +650,9 @@
           <t>Plantes à fibres textiles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Abaca, voir chanvre de Manille
 Bananier textile, voir chanvre de Manille
@@ -698,7 +720,9 @@
           <t>Plantes pour la vannerie et la sparterie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Alfa, Stipa tenacissima Loefl. ex L., Poacées
 Bambou roseau, Bambusa bambos (L.) Voss, Poacées
@@ -741,7 +765,9 @@
           <t>Plantes saccharifères</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Areng ou palmier à sucre, Arenga pinnata (Wurmb) Merr., Arécacées
 Betterave sucrière, Beta vulgaris var. saccharata, Chénopodiacées)
@@ -778,7 +804,9 @@
           <t>Plantes saponifères</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Quillay, Quillaja saponaria Molina, Rosacées
 Saponaire officinale, Saponaria officinalis L., Caryophyllacées
@@ -810,7 +838,9 @@
           <t>Gommes et résines naturelles</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Gommes et latex
 Caoutchouc, Ficus elastica Roxb. ex Hornem, Moracées
@@ -863,7 +893,9 @@
           <t>Plantes à matières tannantes</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Acacia à cachou, Acacia catechu (L. f.) Willd. Fabacées
 Acacia à gomme, Acacia nilotica (L.) Delile, Fabacées
@@ -909,7 +941,9 @@
           <t>Plantes tinctoriales</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Airelle myrtille, Vaccinium myrtillus L.,
 Aulne (Alnus glutinosa (L.) Gaertn.)
@@ -982,6 +1016,8 @@
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1007,7 +1043,9 @@
           <t>Essences et huiles essentielles</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Ambrette (Abelmoschus moschatus Medik. subsp. moschatus, Malvacées)
 Ammi de l'Inde (Trachyspermum ammi (L.) Sprague ex Turrill, Apiacées)
